--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,11 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$O$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -68,6 +71,21 @@
     <t xml:space="preserve">facing_test_purposes_only</t>
   </si>
   <si>
+    <t xml:space="preserve">Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
     <t xml:space="preserve">width</t>
   </si>
   <si>
@@ -95,6 +113,9 @@
     <t xml:space="preserve">manufacturer_fk</t>
   </si>
   <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">PDH Sub-segment</t>
   </si>
   <si>
@@ -104,6 +125,9 @@
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
+    <t xml:space="preserve">PEPSICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
@@ -113,7 +137,13 @@
     <t xml:space="preserve">Product 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-pepsico</t>
+  </si>
+  <si>
     <t xml:space="preserve">General Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">facings</t>
@@ -159,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -180,6 +210,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -302,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,7 +364,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,6 +393,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,26 +497,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,6 +561,12 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -542,6 +603,12 @@
       <c r="M2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -578,6 +645,12 @@
       <c r="M3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -716,6 +789,9 @@
         <f aca="false">VLOOKUP(H7, all_products!$A$2:$B$20, 2, 0)</f>
         <v>10</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>-100</v>
+      </c>
       <c r="M7" s="0" t="n">
         <v>1</v>
       </c>
@@ -749,6 +825,9 @@
         <f aca="false">VLOOKUP(H8, all_products!$A$2:$B$20, 2, 0)</f>
         <v>5</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="M8" s="0" t="n">
         <v>1</v>
       </c>
@@ -782,74 +861,95 @@
         <f aca="false">VLOOKUP(H9, all_products!$A$2:$B$20, 2, 0)</f>
         <v>5</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>370</v>
+      </c>
       <c r="M9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="B10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">VLOOKUP(H10, all_products!$A$2:$B$20, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="J10" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">VLOOKUP(H11, all_products!$A$2:$B$20, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
+      <c r="J11" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +962,10 @@
       <c r="C12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -895,10 +995,10 @@
       <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -928,10 +1028,10 @@
       <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -961,10 +1061,10 @@
       <c r="C15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8" t="n">
+      <c r="D15" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -994,10 +1094,10 @@
       <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8" t="n">
+      <c r="D16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -1027,10 +1127,10 @@
       <c r="C17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8" t="n">
+      <c r="D17" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1049,6 +1149,12 @@
       <c r="M17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1060,10 +1166,10 @@
       <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="n">
+      <c r="D18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -1093,10 +1199,10 @@
       <c r="C19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1126,10 +1232,10 @@
       <c r="C20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1159,10 +1265,10 @@
       <c r="C21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1189,7 +1295,7 @@
       <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="n">
@@ -1222,7 +1328,7 @@
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="4" t="n">
@@ -1255,7 +1361,7 @@
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="n">
@@ -1288,7 +1394,7 @@
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="4" t="n">
@@ -1310,6 +1416,9 @@
         <f aca="false">VLOOKUP(H25, all_products!$A$2:$B$5, 2, 0)</f>
         <v>20</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>1500</v>
+      </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
       </c>
@@ -1321,7 +1430,7 @@
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="4" t="n">
@@ -1354,7 +1463,7 @@
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="n">
@@ -1387,7 +1496,7 @@
       <c r="B28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="5" t="n">
@@ -1420,7 +1529,7 @@
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="5" t="n">
@@ -1453,13 +1562,13 @@
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6" t="n">
+      <c r="C30" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
@@ -1486,13 +1595,13 @@
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="C31" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -1519,13 +1628,13 @@
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6" t="n">
+      <c r="C32" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -1552,13 +1661,13 @@
       <c r="B33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6" t="n">
+      <c r="C33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
@@ -1574,9 +1683,6 @@
         <f aca="false">VLOOKUP(H33, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="J33" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="M33" s="0" t="n">
         <v>1</v>
       </c>
@@ -1585,7 +1691,7 @@
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="n">
@@ -1618,7 +1724,7 @@
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="n">
@@ -1651,7 +1757,7 @@
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="n">
@@ -1684,7 +1790,7 @@
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -1717,7 +1823,7 @@
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="n">
@@ -1750,16 +1856,16 @@
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="n">
+      <c r="D39" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F39" s="0" t="n">
@@ -1783,16 +1889,16 @@
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F40" s="0" t="n">
@@ -1816,16 +1922,16 @@
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="8" t="n">
+      <c r="D41" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F41" s="0" t="n">
@@ -1849,16 +1955,16 @@
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
@@ -1882,16 +1988,16 @@
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="16" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="n">
@@ -1915,16 +2021,16 @@
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="n">
@@ -1948,16 +2054,16 @@
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
@@ -1981,7 +2087,7 @@
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C46" s="3" t="n">
@@ -2009,12 +2115,18 @@
       <c r="M46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -2042,12 +2154,18 @@
       <c r="M47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="n">
@@ -2074,22 +2192,28 @@
       </c>
       <c r="M48" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="6" t="n">
+      <c r="D49" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14" t="n">
         <v>3</v>
       </c>
       <c r="F49" s="0" t="n">
@@ -2107,22 +2231,28 @@
       </c>
       <c r="M49" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="10" t="n">
         <v>2</v>
       </c>
       <c r="F50" s="0" t="n">
@@ -2140,22 +2270,28 @@
       </c>
       <c r="M50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="8" t="n">
+      <c r="D51" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="n">
@@ -2174,21 +2310,27 @@
       <c r="M51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="18" t="n">
         <v>3</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" s="8" t="n">
+      <c r="D52" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="n">
@@ -2207,9 +2349,15 @@
       <c r="M52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M52"/>
+  <autoFilter ref="A1:O52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2226,22 +2374,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,37 +2397,40 @@
         <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2441,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2458,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2475,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +2492,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2509,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2353,25 +2534,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,55 +2565,58 @@
         <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,15 +2646,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
         <v>General Empty</v>
       </c>
+      <c r="R2" s="0" t="str">
+        <f aca="false">VLOOKUP(B2, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>Other</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2497,15 +2687,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="R3" s="0" t="str">
+        <f aca="false">VLOOKUP(B3, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2534,15 +2728,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="R4" s="0" t="str">
+        <f aca="false">VLOOKUP(B4, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2571,15 +2769,19 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
+      <c r="R5" s="0" t="str">
+        <f aca="false">VLOOKUP(B5, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -2608,15 +2810,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 4</v>
       </c>
+      <c r="R6" s="0" t="str">
+        <f aca="false">VLOOKUP(B6, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>Non-pepsico</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2645,15 +2851,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="R7" s="0" t="str">
+        <f aca="false">VLOOKUP(B7, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -2682,15 +2892,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="R8" s="0" t="str">
+        <f aca="false">VLOOKUP(B8, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2719,15 +2933,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
+      <c r="R9" s="0" t="str">
+        <f aca="false">VLOOKUP(B9, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2756,15 +2974,19 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="R10" s="0" t="str">
+        <f aca="false">VLOOKUP(B10, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2793,15 +3015,19 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="R11" s="0" t="str">
+        <f aca="false">VLOOKUP(B11, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2830,14 +3056,18 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <f aca="false">VLOOKUP(B12, all_products!$A$2:$K$6, 11, 0)</f>
+        <v>PEPSICO</v>
       </c>
     </row>
   </sheetData>
@@ -2859,12 +3089,12 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -14,11 +14,12 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$O$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$M$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">stacking_layer</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence_number</t>
+    <t xml:space="preserve">facing sequence_number</t>
   </si>
   <si>
     <t xml:space="preserve">product_fk</t>
@@ -62,6 +63,9 @@
     <t xml:space="preserve">rect_x</t>
   </si>
   <si>
+    <t xml:space="preserve">x_mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
@@ -75,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertical_positioning_assumption_kpi_fk</t>
   </si>
   <si>
     <t xml:space="preserve">on display</t>
@@ -189,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -212,6 +219,13 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -219,12 +233,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,8 +359,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,7 +372,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,23 +388,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,11 +424,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,6 +441,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,7 +506,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -497,91 +529,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.71428571428571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -600,30 +640,36 @@
       <c r="J2" s="0" t="n">
         <v>-300</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>15</v>
+      <c r="K2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -642,30 +688,36 @@
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="K3" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -684,24 +736,30 @@
       <c r="J4" s="0" t="n">
         <v>-250</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>1</v>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -720,24 +778,30 @@
       <c r="J5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <v>1</v>
+      <c r="K5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -756,24 +820,30 @@
       <c r="J6" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <v>1</v>
+      <c r="K6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -792,24 +862,30 @@
       <c r="J7" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="M7" s="0" t="n">
-        <v>1</v>
+      <c r="K7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -828,24 +904,30 @@
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <v>1</v>
+      <c r="K8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -864,108 +946,126 @@
       <c r="J9" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="K9" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9" t="n">
+      <c r="B10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="n">
+      <c r="F10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="n">
         <f aca="false">VLOOKUP(H10, all_products!$A$2:$B$20, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="8" t="n">
         <v>-50</v>
       </c>
-      <c r="M10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="K10" s="8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="n">
+      <c r="B11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="6" t="n">
+      <c r="F11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="n">
         <f aca="false">VLOOKUP(H11, all_products!$A$2:$B$20, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="M11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>15</v>
+      <c r="K11" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -981,24 +1081,30 @@
         <f aca="false">VLOOKUP(H12, all_products!$A$2:$B$20, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
+      <c r="K12" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="n">
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -1014,24 +1120,30 @@
         <f aca="false">VLOOKUP(H13, all_products!$A$2:$B$20, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
+      <c r="K13" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="n">
+      <c r="B14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -1047,24 +1159,30 @@
         <f aca="false">VLOOKUP(H14, all_products!$A$2:$B$20, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <v>1</v>
+      <c r="K14" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11" t="n">
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -1080,24 +1198,30 @@
         <f aca="false">VLOOKUP(H15, all_products!$A$2:$B$20, 2, 0)</f>
         <v>20</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <v>1</v>
+      <c r="K15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="n">
+      <c r="B16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -1113,24 +1237,30 @@
         <f aca="false">VLOOKUP(H16, all_products!$A$2:$B$20, 2, 0)</f>
         <v>20</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
+      <c r="K16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="n">
+      <c r="B17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1144,32 +1274,38 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">VLOOKUP(H17, all_products!$A$2:$B$20, 2, 0)</f>
-        <v>30</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="n">
+      <c r="B18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -1185,24 +1321,30 @@
         <f aca="false">VLOOKUP(H18, all_products!$A$2:$B$5, 2, 0)</f>
         <v>20</v>
       </c>
-      <c r="M18" s="0" t="n">
-        <v>1</v>
+      <c r="K18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="n">
+      <c r="B19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1218,24 +1360,30 @@
         <f aca="false">VLOOKUP(H19, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
+      <c r="K19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="n">
+      <c r="B20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1251,24 +1399,30 @@
         <f aca="false">VLOOKUP(H20, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
+      <c r="K20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="n">
+      <c r="B21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="15" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1284,24 +1438,30 @@
         <f aca="false">VLOOKUP(H21, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
+      <c r="K21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="B22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1317,24 +1477,30 @@
         <f aca="false">VLOOKUP(H22, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <v>1</v>
+      <c r="K22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="B23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1350,24 +1516,30 @@
         <f aca="false">VLOOKUP(H23, all_products!$A$2:$B$5, 2, 0)</f>
         <v>20</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
+      <c r="K23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="n">
+      <c r="B24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -1383,24 +1555,30 @@
         <f aca="false">VLOOKUP(H24, all_products!$A$2:$B$5, 2, 0)</f>
         <v>20</v>
       </c>
-      <c r="M24" s="0" t="n">
-        <v>1</v>
+      <c r="K24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="n">
+      <c r="B25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F25" s="0" t="n">
@@ -1419,24 +1597,30 @@
       <c r="J25" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <v>1</v>
+      <c r="K25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="n">
+      <c r="B26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -1452,24 +1636,30 @@
         <f aca="false">VLOOKUP(H26, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M26" s="0" t="n">
-        <v>1</v>
+      <c r="K26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5" t="n">
+      <c r="B27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -1485,24 +1675,30 @@
         <f aca="false">VLOOKUP(H27, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <v>1</v>
+      <c r="K27" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5" t="n">
+      <c r="B28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
@@ -1518,24 +1714,30 @@
         <f aca="false">VLOOKUP(H28, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <v>1</v>
+      <c r="K28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5" t="n">
+      <c r="B29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
@@ -1551,24 +1753,30 @@
         <f aca="false">VLOOKUP(H29, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M29" s="0" t="n">
-        <v>1</v>
+      <c r="K29" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="14" t="n">
+      <c r="B30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
@@ -1584,24 +1792,30 @@
         <f aca="false">VLOOKUP(H30, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M30" s="0" t="n">
-        <v>1</v>
+      <c r="K30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="14" t="n">
+      <c r="B31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -1617,24 +1831,30 @@
         <f aca="false">VLOOKUP(H31, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <v>1</v>
+      <c r="K31" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="14" t="n">
+      <c r="B32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -1650,24 +1870,30 @@
         <f aca="false">VLOOKUP(H32, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M32" s="0" t="n">
-        <v>1</v>
+      <c r="K32" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="14" t="n">
+      <c r="B33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
@@ -1683,24 +1909,30 @@
         <f aca="false">VLOOKUP(H33, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M33" s="0" t="n">
-        <v>1</v>
+      <c r="K33" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="B34" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="n">
@@ -1716,24 +1948,30 @@
         <f aca="false">VLOOKUP(H34, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>1</v>
+      <c r="K34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="n">
+      <c r="B35" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="n">
@@ -1749,24 +1987,30 @@
         <f aca="false">VLOOKUP(H35, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <v>1</v>
+      <c r="K35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="n">
+      <c r="B36" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="n">
@@ -1782,24 +2026,30 @@
         <f aca="false">VLOOKUP(H36, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>1</v>
+      <c r="K36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5" t="n">
+      <c r="B37" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F37" s="0" t="n">
@@ -1815,24 +2065,30 @@
         <f aca="false">VLOOKUP(H37, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M37" s="0" t="n">
-        <v>1</v>
+      <c r="K37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5" t="n">
+      <c r="B38" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F38" s="0" t="n">
@@ -1848,24 +2104,30 @@
         <f aca="false">VLOOKUP(H38, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M38" s="0" t="n">
-        <v>1</v>
+      <c r="K38" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="14" t="n">
+      <c r="B39" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="17" t="n">
         <v>6</v>
       </c>
       <c r="F39" s="0" t="n">
@@ -1881,24 +2143,30 @@
         <f aca="false">VLOOKUP(H39, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M39" s="0" t="n">
-        <v>1</v>
+      <c r="K39" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10" t="n">
+      <c r="B40" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F40" s="0" t="n">
@@ -1914,24 +2182,30 @@
         <f aca="false">VLOOKUP(H40, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M40" s="0" t="n">
-        <v>1</v>
+      <c r="K40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="11" t="n">
+      <c r="B41" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F41" s="0" t="n">
@@ -1947,24 +2221,30 @@
         <f aca="false">VLOOKUP(H41, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M41" s="0" t="n">
-        <v>1</v>
+      <c r="K41" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12" t="n">
+      <c r="B42" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="12" t="n">
+      <c r="E42" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
@@ -1980,24 +2260,30 @@
         <f aca="false">VLOOKUP(H42, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <v>1</v>
+      <c r="K42" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16" t="n">
+      <c r="B43" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="0" t="n">
@@ -2013,24 +2299,30 @@
         <f aca="false">VLOOKUP(H43, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M43" s="0" t="n">
-        <v>1</v>
+      <c r="K43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17" t="n">
+      <c r="B44" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="17" t="n">
+      <c r="E44" s="20" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="n">
@@ -2046,24 +2338,30 @@
         <f aca="false">VLOOKUP(H44, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M44" s="0" t="n">
-        <v>1</v>
+      <c r="K44" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17" t="n">
+      <c r="B45" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="17" t="n">
+      <c r="E45" s="20" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
@@ -2079,24 +2377,30 @@
         <f aca="false">VLOOKUP(H45, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M45" s="0" t="n">
-        <v>1</v>
+      <c r="K45" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="n">
+      <c r="B46" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F46" s="0" t="n">
@@ -2112,30 +2416,33 @@
         <f aca="false">VLOOKUP(H46, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>17</v>
+      <c r="K46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="n">
+      <c r="B47" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F47" s="0" t="n">
@@ -2151,30 +2458,33 @@
         <f aca="false">VLOOKUP(H47, all_products!$A$2:$B$5, 2, 0)</f>
         <v>10</v>
       </c>
-      <c r="M47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>17</v>
+      <c r="K47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="5" t="n">
+      <c r="B48" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F48" s="0" t="n">
@@ -2190,30 +2500,33 @@
         <f aca="false">VLOOKUP(H48, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>17</v>
+      <c r="K48" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="14" t="n">
+      <c r="B49" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="17" t="n">
         <v>3</v>
       </c>
       <c r="F49" s="0" t="n">
@@ -2229,30 +2542,33 @@
         <f aca="false">VLOOKUP(H49, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>17</v>
+      <c r="K49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10" t="n">
+      <c r="B50" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E50" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F50" s="0" t="n">
@@ -2268,30 +2584,33 @@
         <f aca="false">VLOOKUP(H50, all_products!$A$2:$B$5, 2, 0)</f>
         <v>5</v>
       </c>
-      <c r="M50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>17</v>
+      <c r="K50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="11" t="n">
+      <c r="B51" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="n">
@@ -2307,30 +2626,33 @@
         <f aca="false">VLOOKUP(H51, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>17</v>
+      <c r="K51" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" s="11" t="n">
+      <c r="B52" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="0" t="n">
@@ -2346,18 +2668,21 @@
         <f aca="false">VLOOKUP(H52, all_products!$A$2:$B$5, 2, 0)</f>
         <v>15</v>
       </c>
-      <c r="M52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>17</v>
+      <c r="K52" s="0" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O52"/>
+  <autoFilter ref="A1:N52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2377,19 +2702,19 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,40 +2722,40 @@
         <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,13 +2766,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,13 +2783,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,13 +2800,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,13 +2817,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2537,86 +2862,86 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,29 +2952,29 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2)</f>
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2, matches!$F$2:$F$52, 1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2)</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$52,matches!$B$2:$B$52,$A2,matches!$H$2:$H$52,$B2, matches!$F$2:$F$52, 1)</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2668,11 +2993,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A3,matches!$H$2:$H$52,B3)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A3,matches!$H$2:$H$52,B3)</f>
         <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A3,matches!$H$2:$H$52,$B3, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A3,matches!$H$2:$H$52,$B3, matches!$F$2:$F$52, 1)</f>
         <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -2687,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2709,11 +3034,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A4,matches!$H$2:$H$52,B4)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A4,matches!$H$2:$H$52,B4)</f>
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A4,matches!$H$2:$H$52,$B4, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A4,matches!$H$2:$H$52,$B4, matches!$F$2:$F$52, 1)</f>
         <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -2728,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2750,11 +3075,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A5,matches!$H$2:$H$52,B5)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A5,matches!$H$2:$H$52,B5)</f>
         <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A5,matches!$H$2:$H$52,$B5, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A5,matches!$H$2:$H$52,$B5, matches!$F$2:$F$52, 1)</f>
         <v>8</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -2769,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2791,11 +3116,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A6,matches!$H$2:$H$52,B6)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A6,matches!$H$2:$H$52,B6)</f>
         <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A6,matches!$H$2:$H$52,$B6, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A6,matches!$H$2:$H$52,$B6, matches!$F$2:$F$52, 1)</f>
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -2810,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2832,11 +3157,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A7,matches!$H$2:$H$52,B7)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A7,matches!$H$2:$H$52,B7)</f>
         <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A7,matches!$H$2:$H$52,$B7, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A7,matches!$H$2:$H$52,$B7, matches!$F$2:$F$52, 1)</f>
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -2851,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2873,11 +3198,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A8,matches!$H$2:$H$52,B8)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A8,matches!$H$2:$H$52,B8)</f>
         <v>6</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A8,matches!$H$2:$H$52,$B8, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A8,matches!$H$2:$H$52,$B8, matches!$F$2:$F$52, 1)</f>
         <v>6</v>
       </c>
       <c r="E8" s="0" t="n">
@@ -2892,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2914,11 +3239,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A9,matches!$H$2:$H$52,B9)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A9,matches!$H$2:$H$52,B9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A9,matches!$H$2:$H$52,$B9, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A9,matches!$H$2:$H$52,$B9, matches!$F$2:$F$52, 1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
@@ -2933,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2955,11 +3280,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A10,matches!$H$2:$H$52,B10)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A10,matches!$H$2:$H$52,B10)</f>
         <v>2</v>
       </c>
       <c r="D10" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A10,matches!$H$2:$H$52,$B10, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A10,matches!$H$2:$H$52,$B10, matches!$F$2:$F$52, 1)</f>
         <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -2974,10 +3299,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
@@ -2996,11 +3321,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A11,matches!$H$2:$H$52,B11)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A11,matches!$H$2:$H$52,B11)</f>
         <v>3</v>
       </c>
       <c r="D11" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A11,matches!$H$2:$H$52,$B11, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A11,matches!$H$2:$H$52,$B11, matches!$F$2:$F$52, 1)</f>
         <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -3015,10 +3340,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3037,11 +3362,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,A12,matches!$H$2:$H$52,B12)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,A12,matches!$H$2:$H$52,B12)</f>
         <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
-        <f aca="false">SUMIFS(matches!$M$2:$M$52,matches!$B$2:$B$52,$A12,matches!$H$2:$H$52,$B12, matches!$F$2:$F$52, 1)</f>
+        <f aca="false">SUMIFS(matches!$N$2:$N$52,matches!$B$2:$B$52,$A12,matches!$H$2:$H$52,$B12, matches!$F$2:$F$52, 1)</f>
         <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -3056,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3089,12 +3414,12 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3603,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3619,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3627,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3635,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +3643,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3651,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3659,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +3675,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,12 +14,13 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -51,7 +52,7 @@
     <t xml:space="preserve">stacking_layer</t>
   </si>
   <si>
-    <t xml:space="preserve">facing sequence_number</t>
+    <t xml:space="preserve">facing_sequence_number</t>
   </si>
   <si>
     <t xml:space="preserve">product_fk</t>
@@ -129,12 +130,24 @@
     <t xml:space="preserve">PDH Format</t>
   </si>
   <si>
+    <t xml:space="preserve">Hero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
+    <t xml:space="preserve">DORITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEPSICO</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
@@ -150,7 +163,13 @@
     <t xml:space="preserve">General Empty</t>
   </si>
   <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product 5</t>
   </si>
   <si>
     <t xml:space="preserve">facings</t>
@@ -359,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,6 +464,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,25 +557,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.71428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.4438775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,6 +662,12 @@
       <c r="K2" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
       </c>
@@ -739,6 +764,9 @@
       <c r="K4" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1363,6 +1391,9 @@
       <c r="K19" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
       </c>
@@ -1990,6 +2021,9 @@
       <c r="K35" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="L35" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
@@ -2461,6 +2495,9 @@
       <c r="K47" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="L47" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="N47" s="1" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2719,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52"/>
+  <autoFilter ref="A1:P52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2699,63 +2736,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="22" t="s">
         <v>31</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,13 +2809,28 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +2841,28 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,13 +2873,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,13 +2890,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,13 +2907,39 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2862,24 +2961,20 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1224489795918"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,25 +2985,25 @@
         <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>21</v>
@@ -2971,15 +3066,31 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
         <v>General Empty</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>General</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>0</v>
+      </c>
       <c r="R2" s="0" t="str">
         <f aca="false">VLOOKUP(B2, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Other</v>
@@ -3012,15 +3123,31 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="K3" s="0" t="str">
+        <f aca="false">VLOOKUP(B3, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R3" s="0" t="str">
         <f aca="false">VLOOKUP(B3, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3053,15 +3180,31 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="K4" s="0" t="str">
+        <f aca="false">VLOOKUP(B4, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R4" s="0" t="str">
         <f aca="false">VLOOKUP(B4, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3094,15 +3237,31 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">VLOOKUP(B5, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="0" t="str">
         <f aca="false">VLOOKUP(B5, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3135,15 +3294,31 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 4</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">VLOOKUP(B6, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="0" t="str">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Non-pepsico</v>
@@ -3176,15 +3351,31 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="K7" s="0" t="str">
+        <f aca="false">VLOOKUP(B7, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R7" s="0" t="str">
         <f aca="false">VLOOKUP(B7, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3217,15 +3408,31 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="K8" s="0" t="str">
+        <f aca="false">VLOOKUP(B8, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R8" s="0" t="str">
         <f aca="false">VLOOKUP(B8, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3258,15 +3465,31 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">VLOOKUP(B9, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="0" t="str">
         <f aca="false">VLOOKUP(B9, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3299,15 +3522,31 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
+      <c r="K10" s="0" t="str">
+        <f aca="false">VLOOKUP(B10, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R10" s="0" t="str">
         <f aca="false">VLOOKUP(B10, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3340,15 +3579,31 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
+      <c r="K11" s="0" t="str">
+        <f aca="false">VLOOKUP(B11, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>DORITOS</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>CSN</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="R11" s="0" t="str">
         <f aca="false">VLOOKUP(B11, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
@@ -3381,14 +3636,30 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">VLOOKUP(B12, all_products!$A$2:$N$14, 4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 7, 0)</f>
+        <v>0</v>
       </c>
       <c r="R12" s="0" t="str">
         <f aca="false">VLOOKUP(B12, all_products!$A$2:$K$6, 11, 0)</f>
@@ -3418,16 +3689,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -14,13 +14,15 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -130,6 +132,9 @@
     <t xml:space="preserve">PDH Format</t>
   </si>
   <si>
+    <t xml:space="preserve">sub_brand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hero</t>
   </si>
   <si>
@@ -145,13 +150,28 @@
     <t xml:space="preserve">PEPSICO</t>
   </si>
   <si>
+    <t xml:space="preserve">EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Fun times together Tortilla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINGLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthier Multipack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fun times together Tubes</t>
   </si>
   <si>
     <t xml:space="preserve">Product 4</t>
@@ -547,6 +567,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -557,21 +581,26 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.515306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,6 +799,8 @@
       <c r="N4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
       <c r="Q4" s="1" t="n">
         <v>325</v>
       </c>
@@ -812,6 +843,8 @@
       <c r="N5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
       <c r="Q5" s="1" t="n">
         <v>326</v>
       </c>
@@ -854,6 +887,8 @@
       <c r="N6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
       <c r="Q6" s="1" t="n">
         <v>326</v>
       </c>
@@ -896,6 +931,8 @@
       <c r="N7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
       <c r="Q7" s="1" t="n">
         <v>325</v>
       </c>
@@ -938,6 +975,8 @@
       <c r="N8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
       <c r="Q8" s="1" t="n">
         <v>325</v>
       </c>
@@ -980,6 +1019,8 @@
       <c r="N9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
       <c r="Q9" s="1" t="n">
         <v>326</v>
       </c>
@@ -1115,6 +1156,8 @@
       <c r="N12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
       <c r="Q12" s="1" t="n">
         <v>325</v>
       </c>
@@ -1154,6 +1197,8 @@
       <c r="N13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
       <c r="Q13" s="1" t="n">
         <v>326</v>
       </c>
@@ -1193,6 +1238,8 @@
       <c r="N14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
       <c r="Q14" s="1" t="n">
         <v>327</v>
       </c>
@@ -1232,6 +1279,8 @@
       <c r="N15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
       <c r="Q15" s="1" t="n">
         <v>325</v>
       </c>
@@ -1271,6 +1320,8 @@
       <c r="N16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
       <c r="Q16" s="1" t="n">
         <v>326</v>
       </c>
@@ -1355,6 +1406,8 @@
       <c r="N18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
       <c r="Q18" s="1" t="n">
         <v>325</v>
       </c>
@@ -1397,6 +1450,8 @@
       <c r="N19" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
       <c r="Q19" s="1" t="n">
         <v>325</v>
       </c>
@@ -1436,6 +1491,8 @@
       <c r="N20" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
       <c r="Q20" s="1" t="n">
         <v>326</v>
       </c>
@@ -1475,6 +1532,8 @@
       <c r="N21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
       <c r="Q21" s="1" t="n">
         <v>326</v>
       </c>
@@ -1514,6 +1573,8 @@
       <c r="N22" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
       <c r="Q22" s="1" t="n">
         <v>325</v>
       </c>
@@ -1553,6 +1614,8 @@
       <c r="N23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
       <c r="Q23" s="1" t="n">
         <v>325</v>
       </c>
@@ -1592,6 +1655,8 @@
       <c r="N24" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
       <c r="Q24" s="1" t="n">
         <v>326</v>
       </c>
@@ -1634,6 +1699,8 @@
       <c r="N25" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
       <c r="Q25" s="1" t="n">
         <v>327</v>
       </c>
@@ -1673,6 +1740,8 @@
       <c r="N26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
       <c r="Q26" s="1" t="n">
         <v>325</v>
       </c>
@@ -1712,6 +1781,8 @@
       <c r="N27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
       <c r="Q27" s="1" t="n">
         <v>325</v>
       </c>
@@ -1751,6 +1822,8 @@
       <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
       <c r="Q28" s="1" t="n">
         <v>325</v>
       </c>
@@ -1790,6 +1863,8 @@
       <c r="N29" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
       <c r="Q29" s="1" t="n">
         <v>325</v>
       </c>
@@ -1829,6 +1904,8 @@
       <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
       <c r="Q30" s="1" t="n">
         <v>325</v>
       </c>
@@ -1868,6 +1945,8 @@
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
       <c r="Q31" s="1" t="n">
         <v>325</v>
       </c>
@@ -1907,6 +1986,8 @@
       <c r="N32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
       <c r="Q32" s="1" t="n">
         <v>326</v>
       </c>
@@ -1946,6 +2027,8 @@
       <c r="N33" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
       <c r="Q33" s="1" t="n">
         <v>325</v>
       </c>
@@ -1985,6 +2068,8 @@
       <c r="N34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
       <c r="Q34" s="1" t="n">
         <v>325</v>
       </c>
@@ -2027,6 +2112,8 @@
       <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
       <c r="Q35" s="1" t="n">
         <v>326</v>
       </c>
@@ -2066,6 +2153,8 @@
       <c r="N36" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
       <c r="Q36" s="1" t="n">
         <v>327</v>
       </c>
@@ -2105,6 +2194,8 @@
       <c r="N37" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
       <c r="Q37" s="1" t="n">
         <v>325</v>
       </c>
@@ -2144,6 +2235,8 @@
       <c r="N38" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
       <c r="Q38" s="1" t="n">
         <v>326</v>
       </c>
@@ -2183,6 +2276,8 @@
       <c r="N39" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
       <c r="Q39" s="1" t="n">
         <v>325</v>
       </c>
@@ -2222,6 +2317,8 @@
       <c r="N40" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
       <c r="Q40" s="1" t="n">
         <v>325</v>
       </c>
@@ -2261,6 +2358,8 @@
       <c r="N41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
       <c r="Q41" s="1" t="n">
         <v>325</v>
       </c>
@@ -2300,6 +2399,8 @@
       <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
       <c r="Q42" s="1" t="n">
         <v>325</v>
       </c>
@@ -2339,6 +2440,8 @@
       <c r="N43" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
       <c r="Q43" s="1" t="n">
         <v>325</v>
       </c>
@@ -2378,6 +2481,8 @@
       <c r="N44" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
       <c r="Q44" s="1" t="n">
         <v>325</v>
       </c>
@@ -2417,6 +2522,8 @@
       <c r="N45" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
       <c r="Q45" s="1" t="n">
         <v>326</v>
       </c>
@@ -2719,7 +2826,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P52"/>
+  <autoFilter ref="A1:N52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2736,25 +2843,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,6 +2911,9 @@
       <c r="N1" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2809,16 +2923,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
@@ -2827,10 +2941,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,16 +2958,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
@@ -2859,10 +2976,13 @@
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,13 +2993,31 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,13 +3028,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +3054,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -2919,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,16 +3077,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2958,85 +3111,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,34 +3227,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
         <v>General Empty</v>
       </c>
       <c r="K2" s="0" t="n">
-        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 4, 0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="0" t="n">
-        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 5, 0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="0" t="str">
-        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 6, 0)</f>
         <v>General</v>
       </c>
       <c r="N2" s="0" t="n">
-        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$14, 7, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$K$6, 10, 0)</f>
+        <v>1</v>
       </c>
       <c r="R2" s="0" t="str">
-        <f aca="false">VLOOKUP(B2, all_products!$A$2:$K$6, 11, 0)</f>
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Other</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">VLOOKUP(B2, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,35 +3300,51 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
       <c r="K3" s="0" t="str">
-        <f aca="false">VLOOKUP(B3, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B3, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L3" s="0" t="n">
-        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M3" s="0" t="str">
-        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N3" s="0" t="n">
-        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R3" s="0" t="str">
         <f aca="false">VLOOKUP(B3, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">VLOOKUP(B3, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -3180,35 +3373,51 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
       <c r="K4" s="0" t="str">
-        <f aca="false">VLOOKUP(B4, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B4, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M4" s="0" t="str">
-        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R4" s="0" t="str">
         <f aca="false">VLOOKUP(B4, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <f aca="false">VLOOKUP(B4, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tortilla</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -3237,35 +3446,51 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">VLOOKUP(B5, all_products!$A$2:$N$14, 4, 0)</f>
-        <v>0</v>
+      <c r="K5" s="0" t="str">
+        <f aca="false">VLOOKUP(B5, all_products!$A$2:$O$14, 4, 0)</f>
+        <v>PRINGLES</v>
       </c>
       <c r="L5" s="0" t="n">
-        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 6, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 5, 0)</f>
+        <v>189</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 6, 0)</f>
+        <v>CSN</v>
       </c>
       <c r="N5" s="0" t="n">
-        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$14, 7, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$K$6, 10, 0)</f>
+        <v>2</v>
       </c>
       <c r="R5" s="0" t="str">
         <f aca="false">VLOOKUP(B5, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S5" s="0" t="str">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>Healthier Multipack</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <f aca="false">VLOOKUP(B5, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tubes</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -3294,35 +3519,51 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 4</v>
       </c>
       <c r="K6" s="0" t="n">
-        <f aca="false">VLOOKUP(B6, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B6, all_products!$A$2:$O$14, 4, 0)</f>
         <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
-        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 6, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 6, 0)</f>
+        <v>CSN</v>
       </c>
       <c r="N6" s="0" t="n">
-        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$14, 7, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$K$6, 10, 0)</f>
+        <v>3</v>
       </c>
       <c r="R6" s="0" t="str">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Non-pepsico</v>
       </c>
+      <c r="S6" s="0" t="str">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>Healthier Multipack</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">VLOOKUP(B6, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -3351,35 +3592,51 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
       <c r="K7" s="0" t="str">
-        <f aca="false">VLOOKUP(B7, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B7, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L7" s="0" t="n">
-        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M7" s="0" t="str">
-        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N7" s="0" t="n">
-        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R7" s="0" t="str">
         <f aca="false">VLOOKUP(B7, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">VLOOKUP(B7, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -3408,35 +3665,51 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
       <c r="K8" s="0" t="str">
-        <f aca="false">VLOOKUP(B8, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B8, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L8" s="0" t="n">
-        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M8" s="0" t="str">
-        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N8" s="0" t="n">
-        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R8" s="0" t="str">
         <f aca="false">VLOOKUP(B8, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="str">
+        <f aca="false">VLOOKUP(B8, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tortilla</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -3465,35 +3738,51 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">VLOOKUP(B9, all_products!$A$2:$N$14, 4, 0)</f>
-        <v>0</v>
+      <c r="K9" s="0" t="str">
+        <f aca="false">VLOOKUP(B9, all_products!$A$2:$O$14, 4, 0)</f>
+        <v>PRINGLES</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 6, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 5, 0)</f>
+        <v>189</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 6, 0)</f>
+        <v>CSN</v>
       </c>
       <c r="N9" s="0" t="n">
-        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$14, 7, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$K$6, 10, 0)</f>
+        <v>2</v>
       </c>
       <c r="R9" s="0" t="str">
         <f aca="false">VLOOKUP(B9, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S9" s="0" t="str">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>Healthier Multipack</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <f aca="false">VLOOKUP(B9, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tubes</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -3522,35 +3811,51 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
       <c r="K10" s="0" t="str">
-        <f aca="false">VLOOKUP(B10, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B10, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L10" s="0" t="n">
-        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M10" s="0" t="str">
-        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N10" s="0" t="n">
-        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R10" s="0" t="str">
         <f aca="false">VLOOKUP(B10, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">VLOOKUP(B10, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="str">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -3579,35 +3884,51 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
       <c r="K11" s="0" t="str">
-        <f aca="false">VLOOKUP(B11, all_products!$A$2:$N$14, 4, 0)</f>
+        <f aca="false">VLOOKUP(B11, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
       <c r="L11" s="0" t="n">
-        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 5, 0)</f>
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
       <c r="M11" s="0" t="str">
-        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 6, 0)</f>
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
       <c r="N11" s="0" t="n">
-        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$14, 7, 0)</f>
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
       <c r="R11" s="0" t="str">
         <f aca="false">VLOOKUP(B11, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <f aca="false">VLOOKUP(B11, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tortilla</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -3636,37 +3957,54 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">VLOOKUP(B12, all_products!$A$2:$N$14, 4, 0)</f>
-        <v>0</v>
+      <c r="K12" s="0" t="str">
+        <f aca="false">VLOOKUP(B12, all_products!$A$2:$O$14, 4, 0)</f>
+        <v>PRINGLES</v>
       </c>
       <c r="L12" s="0" t="n">
-        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 6, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 5, 0)</f>
+        <v>189</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 6, 0)</f>
+        <v>CSN</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$14, 7, 0)</f>
-        <v>0</v>
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$K$6, 10, 0)</f>
+        <v>2</v>
       </c>
       <c r="R12" s="0" t="str">
         <f aca="false">VLOOKUP(B12, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
+      <c r="S12" s="0" t="str">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$6, 12, 0)</f>
+        <v>Healthier Multipack</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <f aca="false">VLOOKUP(B12, all_products!$A$2:$O$6, 13, 0)</f>
+        <v>Fun times together Tubes</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3674,6 +4012,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3689,13 +4028,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,15 +14,17 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -138,6 +140,9 @@
     <t xml:space="preserve">Hero</t>
   </si>
   <si>
+    <t xml:space="preserve">form_factor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
@@ -178,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">Non-pepsico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardboard box</t>
   </si>
   <si>
     <t xml:space="preserve">General Empty</t>
@@ -578,29 +586,29 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.515306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2834,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52"/>
+  <autoFilter ref="A1:P52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2843,29 +2851,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,6 +2922,9 @@
       <c r="O1" s="22" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2923,16 +2934,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
@@ -2941,13 +2952,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,16 +2969,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
@@ -2976,13 +2987,13 @@
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,16 +3004,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>189</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
@@ -3011,13 +3022,13 @@
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,10 +3039,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -3040,10 +3051,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,10 +3068,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -3066,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
@@ -3089,10 +3103,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3111,28 +3125,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,25 +3157,25 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>21</v>
@@ -3198,6 +3212,9 @@
       </c>
       <c r="U1" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3272,6 +3289,10 @@
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -3300,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3345,6 +3366,10 @@
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -3373,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3418,6 +3443,10 @@
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -3446,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3491,6 +3520,10 @@
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -3519,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3564,6 +3597,10 @@
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V6" s="0" t="str">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>cardboard box</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -3592,10 +3629,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3637,6 +3674,10 @@
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -3665,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3710,6 +3751,10 @@
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -3738,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3783,6 +3828,10 @@
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -3811,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3856,6 +3905,10 @@
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -3884,10 +3937,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3929,6 +3982,10 @@
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -3957,10 +4014,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
@@ -4000,6 +4057,10 @@
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$6, 14, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -14,17 +14,19 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -140,7 +142,7 @@
     <t xml:space="preserve">Hero</t>
   </si>
   <si>
-    <t xml:space="preserve">form_factor</t>
+    <t xml:space="preserve">att1</t>
   </si>
   <si>
     <t xml:space="preserve">Product 1</t>
@@ -185,7 +187,7 @@
     <t xml:space="preserve">Non-pepsico</t>
   </si>
   <si>
-    <t xml:space="preserve">cardboard box</t>
+    <t xml:space="preserve">display cardboard box</t>
   </si>
   <si>
     <t xml:space="preserve">General Empty</t>
@@ -594,21 +596,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +2836,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P52"/>
+  <autoFilter ref="A1:N52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2854,26 +2856,26 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,25 +3130,24 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
+      <selection pane="topLeft" activeCell="W8" activeCellId="0" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,7 +3600,7 @@
       </c>
       <c r="V6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$P$6, 16, 0)</f>
-        <v>cardboard box</v>
+        <v>display cardboard box</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,7 +4091,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -14,7 +14,7 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
@@ -22,11 +22,15 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -184,6 +188,9 @@
     <t xml:space="preserve">Product 4</t>
   </si>
   <si>
+    <t xml:space="preserve">HULA HOOPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-pepsico</t>
   </si>
   <si>
@@ -200,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">Product 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
   </si>
   <si>
     <t xml:space="preserve">facings</t>
@@ -591,26 +601,26 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,7 +2846,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52"/>
+  <autoFilter ref="A1:Q52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2856,26 +2866,26 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,6 +3053,12 @@
       <c r="C5" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="D5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>138</v>
+      </c>
       <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
@@ -3053,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3086,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -3082,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3115,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>301</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>37</v>
@@ -3130,24 +3158,25 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W8" activeCellId="0" sqref="W8"/>
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,25 +3187,25 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>21</v>
@@ -3245,18 +3274,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
         <v>General Empty</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="0" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 4, 0)</f>
-        <v>0</v>
+        <v>General</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 5, 0)</f>
@@ -3322,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3399,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3476,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3553,22 +3582,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 4</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="0" t="str">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$O$14, 4, 0)</f>
-        <v>0</v>
+        <v>HULA HOOPS</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 5, 0)</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="M6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 6, 0)</f>
@@ -3630,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3707,10 +3736,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3784,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3861,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
@@ -3938,10 +3967,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
@@ -4015,10 +4044,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
@@ -4091,7 +4120,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,22 +15,26 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$U$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$U$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -149,6 +153,9 @@
     <t xml:space="preserve">att1</t>
   </si>
   <si>
+    <t xml:space="preserve">Hero SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
@@ -167,12 +174,21 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">PepsiCo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
     <t xml:space="preserve">Fun times together Tortilla</t>
   </si>
   <si>
+    <t xml:space="preserve">TRANSFORM-A-SNACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 3</t>
   </si>
   <si>
@@ -194,6 +210,9 @@
     <t xml:space="preserve">Non-pepsico</t>
   </si>
   <si>
+    <t xml:space="preserve">GOLDEN WONDER AWESOME OINKS</t>
+  </si>
+  <si>
     <t xml:space="preserve">display cardboard box</t>
   </si>
   <si>
@@ -212,6 +231,9 @@
     <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
   </si>
   <si>
+    <t xml:space="preserve">Private Label</t>
+  </si>
+  <si>
     <t xml:space="preserve">facings</t>
   </si>
   <si>
@@ -231,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">location_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_type_fk</t>
   </si>
   <si>
     <t xml:space="preserve">Template 1</t>
@@ -598,29 +623,29 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,29 +2888,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,6 +2962,9 @@
       <c r="P1" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2946,16 +2974,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
@@ -2964,13 +2992,16 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,16 +3012,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
@@ -2999,13 +3030,19 @@
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,16 +3053,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>189</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
@@ -3034,13 +3071,16 @@
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,16 +3091,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -3069,13 +3109,16 @@
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>45</v>
+      <c r="N5" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,16 +3129,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -3104,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,16 +3158,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>301</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
@@ -3133,10 +3176,16 @@
         <v>2</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3155,28 +3204,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,64 +3235,70 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,53 +3328,60 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$6, 3, 0)</f>
         <v>General Empty</v>
       </c>
-      <c r="K2" s="0" t="str">
+      <c r="L2" s="0" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 4, 0)</f>
         <v>General</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 5, 0)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="str">
+      <c r="N2" s="0" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 6, 0)</f>
         <v>General</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 7, 0)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$K$6, 10, 0)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="0" t="str">
+      <c r="S2" s="0" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Other</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <f aca="false">VLOOKUP(B2, all_products!$A$2:$O$6, 13, 0)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$N$6, 14, 0)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$Q$6, 17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3351,54 +3412,61 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
-      <c r="K3" s="0" t="str">
+      <c r="L3" s="0" t="str">
         <f aca="false">VLOOKUP(B3, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M3" s="0" t="str">
+      <c r="N3" s="0" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="0" t="str">
+      <c r="S3" s="0" t="str">
         <f aca="false">VLOOKUP(B3, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <f aca="false">VLOOKUP(B3, all_products!$A$2:$O$6, 13, 0)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="0" t="str">
+      <c r="V3" s="0" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>PepsiCo</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,54 +3496,61 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
-      <c r="K4" s="0" t="str">
+      <c r="L4" s="0" t="str">
         <f aca="false">VLOOKUP(B4, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M4" s="0" t="str">
+      <c r="N4" s="0" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R4" s="0" t="str">
+      <c r="S4" s="0" t="str">
         <f aca="false">VLOOKUP(B4, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="0" t="str">
+      <c r="U4" s="0" t="str">
         <f aca="false">VLOOKUP(B4, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tortilla</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>Competitor</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,53 +3580,60 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K5" s="0" t="str">
+      <c r="L5" s="0" t="str">
         <f aca="false">VLOOKUP(B5, all_products!$A$2:$O$14, 4, 0)</f>
         <v>PRINGLES</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 5, 0)</f>
         <v>189</v>
       </c>
-      <c r="M5" s="0" t="str">
+      <c r="N5" s="0" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R5" s="0" t="str">
+      <c r="S5" s="0" t="str">
         <f aca="false">VLOOKUP(B5, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S5" s="0" t="str">
+      <c r="T5" s="0" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$6, 12, 0)</f>
         <v>Healthier Multipack</v>
       </c>
-      <c r="T5" s="0" t="str">
+      <c r="U5" s="0" t="str">
         <f aca="false">VLOOKUP(B5, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tubes</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W5" s="0" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$Q$6, 17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3582,54 +3664,61 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 4</v>
       </c>
-      <c r="K6" s="0" t="str">
+      <c r="L6" s="0" t="str">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$O$14, 4, 0)</f>
         <v>HULA HOOPS</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 5, 0)</f>
         <v>138</v>
       </c>
-      <c r="M6" s="0" t="str">
+      <c r="N6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$K$6, 10, 0)</f>
         <v>3</v>
       </c>
-      <c r="R6" s="0" t="str">
+      <c r="S6" s="0" t="str">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$K$6, 11, 0)</f>
         <v>Non-pepsico</v>
       </c>
-      <c r="S6" s="0" t="str">
+      <c r="T6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$6, 12, 0)</f>
         <v>Healthier Multipack</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <f aca="false">VLOOKUP(B6, all_products!$A$2:$O$6, 13, 0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="0" t="str">
+        <v>GOLDEN WONDER AWESOME OINKS</v>
+      </c>
+      <c r="W6" s="0" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$P$6, 16, 0)</f>
         <v>display cardboard box</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,54 +3748,61 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
-      <c r="K7" s="0" t="str">
+      <c r="L7" s="0" t="str">
         <f aca="false">VLOOKUP(B7, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M7" s="0" t="str">
+      <c r="N7" s="0" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R7" s="0" t="str">
+      <c r="S7" s="0" t="str">
         <f aca="false">VLOOKUP(B7, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <f aca="false">VLOOKUP(B7, all_products!$A$2:$O$6, 13, 0)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="0" t="str">
+      <c r="V7" s="0" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>PepsiCo</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,54 +3832,61 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
-      <c r="K8" s="0" t="str">
+      <c r="L8" s="0" t="str">
         <f aca="false">VLOOKUP(B8, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M8" s="0" t="str">
+      <c r="N8" s="0" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="0" t="str">
+      <c r="S8" s="0" t="str">
         <f aca="false">VLOOKUP(B8, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="0" t="str">
+      <c r="U8" s="0" t="str">
         <f aca="false">VLOOKUP(B8, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tortilla</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>Competitor</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,53 +3916,60 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="0" t="str">
+        <v>71</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K9" s="0" t="str">
+      <c r="L9" s="0" t="str">
         <f aca="false">VLOOKUP(B9, all_products!$A$2:$O$14, 4, 0)</f>
         <v>PRINGLES</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 5, 0)</f>
         <v>189</v>
       </c>
-      <c r="M9" s="0" t="str">
+      <c r="N9" s="0" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="0" t="str">
+      <c r="S9" s="0" t="str">
         <f aca="false">VLOOKUP(B9, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S9" s="0" t="str">
+      <c r="T9" s="0" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$6, 12, 0)</f>
         <v>Healthier Multipack</v>
       </c>
-      <c r="T9" s="0" t="str">
+      <c r="U9" s="0" t="str">
         <f aca="false">VLOOKUP(B9, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tubes</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W9" s="0" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$P$6, 16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$Q$6, 17, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3890,54 +4000,61 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="0" t="str">
+        <v>73</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 1</v>
       </c>
-      <c r="K10" s="0" t="str">
+      <c r="L10" s="0" t="str">
         <f aca="false">VLOOKUP(B10, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M10" s="0" t="str">
+      <c r="N10" s="0" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R10" s="0" t="str">
+      <c r="S10" s="0" t="str">
         <f aca="false">VLOOKUP(B10, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <f aca="false">VLOOKUP(B10, all_products!$A$2:$O$6, 13, 0)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="0" t="str">
+      <c r="V10" s="0" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$N$6, 14, 0)</f>
         <v>EAT REAL HUMMUS LENTIL &amp; QUINOA CHIPS</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>PepsiCo</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,54 +4084,61 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="0" t="str">
+        <v>73</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 2</v>
       </c>
-      <c r="K11" s="0" t="str">
+      <c r="L11" s="0" t="str">
         <f aca="false">VLOOKUP(B11, all_products!$A$2:$O$14, 4, 0)</f>
         <v>DORITOS</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 5, 0)</f>
         <v>136</v>
       </c>
-      <c r="M11" s="0" t="str">
+      <c r="N11" s="0" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="0" t="str">
+      <c r="S11" s="0" t="str">
         <f aca="false">VLOOKUP(B11, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$6, 12, 0)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="0" t="str">
+      <c r="U11" s="0" t="str">
         <f aca="false">VLOOKUP(B11, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tortilla</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>Competitor</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,58 +4168,65 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="0" t="str">
+        <v>73</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$6, 3, 0)</f>
         <v>Product 3</v>
       </c>
-      <c r="K12" s="0" t="str">
+      <c r="L12" s="0" t="str">
         <f aca="false">VLOOKUP(B12, all_products!$A$2:$O$14, 4, 0)</f>
         <v>PRINGLES</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 5, 0)</f>
         <v>189</v>
       </c>
-      <c r="M12" s="0" t="str">
+      <c r="N12" s="0" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 6, 0)</f>
         <v>CSN</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
       </c>
-      <c r="R12" s="0" t="str">
+      <c r="S12" s="0" t="str">
         <f aca="false">VLOOKUP(B12, all_products!$A$2:$K$6, 11, 0)</f>
         <v>PEPSICO</v>
       </c>
-      <c r="S12" s="0" t="str">
+      <c r="T12" s="0" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$6, 12, 0)</f>
         <v>Healthier Multipack</v>
       </c>
-      <c r="T12" s="0" t="str">
+      <c r="U12" s="0" t="str">
         <f aca="false">VLOOKUP(B12, all_products!$A$2:$O$6, 13, 0)</f>
         <v>Fun times together Tubes</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$N$6, 14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="0" t="n">
+        <v>TRANSFORM-A-SNACK</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$P$6, 16, 0)</f>
         <v>0</v>
       </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$Q$6, 17, 0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U12"/>
+  <autoFilter ref="A1:V12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4114,13 +4245,13 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -14,27 +14,29 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -165,6 +167,9 @@
     <t xml:space="preserve">CSN</t>
   </si>
   <si>
+    <t xml:space="preserve">Sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEPSICO</t>
   </si>
   <si>
@@ -195,6 +200,9 @@
     <t xml:space="preserve">PRINGLES</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Healthier Multipack</t>
   </si>
   <si>
@@ -222,6 +230,9 @@
     <t xml:space="preserve">General</t>
   </si>
   <si>
+    <t xml:space="preserve">Dips</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
@@ -229,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">BLACK COUNTRY SNACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
   </si>
   <si>
     <t xml:space="preserve">Private Label</t>
@@ -624,28 +638,24 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,7 +2881,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q52"/>
+  <autoFilter ref="A1:P52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2890,27 +2900,26 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9540816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.2448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,20 +2997,26 @@
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -3026,23 +3041,29 @@
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,10 +3074,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>189</v>
@@ -3067,20 +3088,26 @@
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3118,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>138</v>
@@ -3105,20 +3132,26 @@
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,25 +3162,31 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3197,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>301</v>
@@ -3172,20 +3211,26 @@
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="J7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3207,24 +3252,21 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,28 +3277,28 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>21</v>
@@ -3328,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
@@ -3356,6 +3398,14 @@
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14, 7, 0)</f>
         <v>0</v>
       </c>
+      <c r="P2" s="0" t="str">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Dips</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">VLOOKUP($B2, all_products!$A$2:$O$14,9, 0)</f>
+        <v>13</v>
+      </c>
       <c r="R2" s="0" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$K$6, 10, 0)</f>
         <v>1</v>
@@ -3412,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -3440,6 +3490,14 @@
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P3" s="0" t="str">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">VLOOKUP($B3, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R3" s="0" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -3496,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -3524,6 +3582,14 @@
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P4" s="0" t="str">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">VLOOKUP($B4, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R4" s="0" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -3580,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3608,6 +3674,14 @@
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P5" s="0" t="str">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Nuts</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">VLOOKUP($B5, all_products!$A$2:$O$14,9, 0)</f>
+        <v>14</v>
+      </c>
       <c r="R5" s="0" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -3664,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -3692,6 +3766,14 @@
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P6" s="0" t="str">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">VLOOKUP($B6, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R6" s="0" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$K$6, 10, 0)</f>
         <v>3</v>
@@ -3748,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -3776,6 +3858,14 @@
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P7" s="0" t="str">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">VLOOKUP($B7, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R7" s="0" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -3832,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -3860,6 +3950,14 @@
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P8" s="0" t="str">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">VLOOKUP($B8, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R8" s="0" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -3916,10 +4014,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>1</v>
@@ -3944,6 +4042,14 @@
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P9" s="0" t="str">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Nuts</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">VLOOKUP($B9, all_products!$A$2:$O$14,9, 0)</f>
+        <v>14</v>
+      </c>
       <c r="R9" s="0" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -4000,10 +4106,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>2</v>
@@ -4028,6 +4134,14 @@
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P10" s="0" t="str">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">VLOOKUP($B10, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R10" s="0" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -4084,10 +4198,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>2</v>
@@ -4112,6 +4226,14 @@
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
       </c>
+      <c r="P11" s="0" t="str">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Sharing</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">VLOOKUP($B11, all_products!$A$2:$O$14,9, 0)</f>
+        <v>5</v>
+      </c>
       <c r="R11" s="0" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$K$6, 10, 0)</f>
         <v>2</v>
@@ -4168,10 +4290,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>2</v>
@@ -4195,6 +4317,14 @@
       <c r="O12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14, 7, 0)</f>
         <v>2</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14,8, 0)</f>
+        <v>Nuts</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">VLOOKUP($B12, all_products!$A$2:$O$14,9, 0)</f>
+        <v>14</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$K$6, 10, 0)</f>
@@ -4250,16 +4380,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
+++ b/Projects/PEPSICOUK/Tests/Data/test_case_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,22 +14,23 @@
     <sheet name="stitch_groups" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$Q$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$Q$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$P$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$N$52</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
@@ -37,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -158,6 +160,9 @@
     <t xml:space="preserve">Hero SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
@@ -182,6 +187,9 @@
     <t xml:space="preserve">PepsiCo</t>
   </si>
   <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
@@ -234,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty</t>
   </si>
   <si>
     <t xml:space="preserve">Product 5</t>
@@ -645,17 +656,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.88265306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2896,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P52"/>
+  <autoFilter ref="A1:Q52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2898,28 +2913,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9540816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,6 +2990,9 @@
       <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2983,22 +3002,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>5</v>
@@ -3007,16 +3026,19 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,22 +3049,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>136</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>5</v>
@@ -3051,19 +3073,22 @@
         <v>2</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,22 +3099,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>189</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>14</v>
@@ -3098,16 +3123,19 @@
         <v>2</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,22 +3146,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>5</v>
@@ -3142,16 +3170,19 @@
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,22 +3193,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>13</v>
@@ -3186,7 +3217,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,22 +3231,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>301</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>7</v>
@@ -3221,16 +3255,19 @@
         <v>2</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3257,16 +3294,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,28 +3318,28 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>21</v>
@@ -3370,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
@@ -3462,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -3554,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -3646,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3738,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -3830,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -3922,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -4014,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>1</v>
@@ -4106,10 +4147,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>2</v>
@@ -4198,10 +4239,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>2</v>
@@ -4290,10 +4331,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>2</v>
@@ -4380,13 +4421,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
